--- a/TEA/BaseCases/BC_SMR process_Brazil.xlsx
+++ b/TEA/BaseCases/BC_SMR process_Brazil.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NahyeonAn\Documents\GitHub\TeamEnv\TEA\BaseCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PSID_PC22\Documents\GitHub\TeamEnv\TEA\BaseCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{244DBA88-92F9-45CF-9192-DC1865FB4D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CCE465-6F26-4323-B86F-CE599B958415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="40320" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SMR" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="143">
   <si>
     <t>Capex</t>
   </si>
@@ -458,6 +458,14 @@
   </si>
   <si>
     <t>Heating price [USD/cal]</t>
+  </si>
+  <si>
+    <t>전기비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Raw material</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -799,7 +807,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1030,6 +1038,12 @@
     <xf numFmtId="11" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
@@ -1314,8 +1328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J46" sqref="J45:J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1925,7 +1939,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" s="9" t="s">
         <v>16</v>
       </c>
@@ -1940,7 +1954,7 @@
         <v>45071.758345968003</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B34" s="9" t="s">
         <v>18</v>
       </c>
@@ -1958,7 +1972,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B35" s="9" t="s">
         <v>20</v>
       </c>
@@ -1973,7 +1987,7 @@
         <v>7597.7524910807997</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B36" s="9" t="s">
         <v>21</v>
       </c>
@@ -1988,7 +2002,7 @@
         <v>18807.487468488001</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B37" s="9" t="s">
         <v>22</v>
       </c>
@@ -2002,7 +2016,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B38" s="9" t="s">
         <v>23</v>
       </c>
@@ -2016,7 +2030,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B39" s="9" t="s">
         <v>24</v>
       </c>
@@ -2031,7 +2045,7 @@
         <v>12291.235212816</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B40" s="9" t="s">
         <v>25</v>
       </c>
@@ -2045,7 +2059,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B41" s="9" t="s">
         <v>27</v>
       </c>
@@ -2060,7 +2074,7 @@
         <v>58.824047393999997</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B42" s="9" t="s">
         <v>30</v>
       </c>
@@ -2074,7 +2088,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B43" s="9" t="s">
         <v>31</v>
       </c>
@@ -2088,7 +2102,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B44" s="9" t="s">
         <v>32</v>
       </c>
@@ -2103,7 +2117,7 @@
         <v>93.383110681920002</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B45" s="9" t="s">
         <v>33</v>
       </c>
@@ -2117,7 +2131,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B46" s="10" t="s">
         <v>36</v>
       </c>
@@ -2130,8 +2144,15 @@
       <c r="E46" s="39" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="47" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F46" s="85">
+        <f>E47-F47</f>
+        <v>84603.498951438727</v>
+      </c>
+      <c r="G46" s="84" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B47" s="6" t="s">
         <v>37</v>
       </c>
@@ -2143,6 +2164,13 @@
       <c r="E47" s="58">
         <f>SUM(E30:E46)</f>
         <v>86346.086167388727</v>
+      </c>
+      <c r="F47" s="85">
+        <f>SUM(E30,E34)</f>
+        <v>1742.58721595</v>
+      </c>
+      <c r="G47" s="38" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
